--- a/Milesstone 1/state transition table.xlsx
+++ b/Milesstone 1/state transition table.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\OneDrive\Documents\Junior Documents S2\Formal Languages and Computability\CMPT_400\Milesstone 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpair/OneDrive/Documents/Junior Documents S2/Formal Languages and Computability/CMPT_400/Milesstone 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -212,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,21 +594,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="4" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" customWidth="1"/>
+    <col min="21" max="21" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -667,7 +670,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -726,7 +729,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -785,7 +788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -844,7 +847,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -903,7 +906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -962,7 +965,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1201,7 +1204,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1912,7 +1915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2089,7 +2092,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>27</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="K29" t="s">
         <v>58</v>
@@ -2331,7 +2334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2570,7 +2573,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>58</v>
       </c>
